--- a/src/020_学校毎の利用状況可視化サンプル/名簿サンプル/2024-04-01_M365名簿.xlsx
+++ b/src/020_学校毎の利用状況可視化サンプル/名簿サンプル/2024-04-01_M365名簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uchida1-my.sharepoint.com/personal/masaya-tachizawa_uchida_co_jp/Documents/ドキュメント/一時保存/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="11_3E2B3306767C197432CAC06286086E1D5A6D54FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27783EBA-011B-44CA-A18D-1F19DDC06D3B}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="11_3E2B3306767C197432CAC06286086E1D5A6D54FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA064C44-F4C8-4C35-A870-F906C29D2338}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-120" windowWidth="28050" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -4536,7 +4536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83737C0B-6EB6-4667-98A5-47F628E8DB51}">
   <dimension ref="A1:F663"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17304,12 +17306,12 @@
       <formula2>2999</formula2>
     </dataValidation>
     <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="所属" prompt="対象者の所属を入力してください。_x000a_例）○○小学校、教育委員会　など" sqref="B2:B1048576" xr:uid="{E2CEE814-D103-47E3-B5AB-11C80B56ADE2}"/>
-    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="M365ID" prompt="対象者のMicrosoft 365 IDを入力してください。_x000a_「@」より後も含めてすべて入力してください。" sqref="C2:C1048576" xr:uid="{8B5D02F7-7335-46D0-A84C-0CD58325F50A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="氏名" prompt="対象者の氏名を入力してください。この値がダッシュボード上の表示に使用されます。" sqref="D2:D1048576" xr:uid="{CEB92E2C-F21D-47C1-8E19-CBE90D4A3D5B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="学級名" prompt="学級名を入力してください。_x000a_例）1年1組、ひまわり学級(特支級等の場合)など" sqref="F2:F1048576" xr:uid="{2A24BC64-13DC-4FBA-83D6-3482B036426A}"/>
+    <dataValidation imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="M365ID" prompt="対象者のMicrosoft 365 IDを入力してください。_x000a_「@」より後も含めてすべて入力してください。_x000a_【※】同一年度内で重複が無いようにしてください。" sqref="C2:C1048576" xr:uid="{8B5D02F7-7335-46D0-A84C-0CD58325F50A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="学級名" prompt="学級名を入力してください。_x000a_例）1年1組、ひまわり学級(特支級等の場合)など_x000a__x000a_相当するものがなければ空欄でも構いません。_x000a_運用負荷を考慮して一律「未設定」という文言も可能です。" sqref="F2:F1048576" xr:uid="{2A24BC64-13DC-4FBA-83D6-3482B036426A}"/>
     <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="児童生徒、教員、全体管理者の中から該当するものを入力してください。" promptTitle="役割" prompt="児童生徒、教員、全体管理者のいずれか該当するものを入力してください。" sqref="E2:E1048576" xr:uid="{06FD477A-E5FB-4622-BD57-32C22D9E0FE9}">
       <formula1>"児童生徒, 教員, 全体管理者"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="氏名" prompt="対象者の氏名を入力してください。_x000a_現在はレポートに表示していないため、空欄でも構いません。" sqref="D2:D1048576" xr:uid="{CEC41857-2E75-44DE-A255-82672C26BE1A}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
